--- a/medicine/Handicap/Externat_médico-pédagogique/Externat_médico-pédagogique.xlsx
+++ b/medicine/Handicap/Externat_médico-pédagogique/Externat_médico-pédagogique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Externat_m%C3%A9dico-p%C3%A9dagogique</t>
+          <t>Externat_médico-pédagogique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un externat médico-pédagogique (EMP) accueille des enfants présentant des troubles du développement du langage (dysphasies) auxquels peuvent s'associer d'autres troubles de l'apprentissage (dyslexies, dyscalculies), des troubles dyspraxiques, de la mémoire, de l'attention avec ou sans hyperactivité. Les enfants (typiquement de 3 à 14 ans) présentent donc des troubles sévères de la relation associés parfois avec une déficience mentale légère. Ces enfants connaissent souvent un échec scolaire massif.
 Il ne s'agit pas d'un établissement médicalisé : les troubles de la personnalité et du comportement que connaissent les enfants ne s'accompagnent pas d'anomalies neurologiques décelables, d'anomalies anatomiques de l'appareil phonatoire, d'atteinte sensorielle ou de retard mental global. (FAUX !!!)
